--- a/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>STR#</t>
   </si>
@@ -142,6 +142,99 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r548017404-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>56053</t>
+  </si>
+  <si>
+    <t>12277425</t>
+  </si>
+  <si>
+    <t>548017404</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Only in an emergency stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is not much to speak of. Came here because is was close to home. Our plumbing is out. Needed a place to stay for the night, to take a bath and have a toilet.  No coffee maker no hair drier. Went down to lobby to get coffee at 6am NO COFFEE. Place was clean. Bed was so so. Should have have stayed at a place a little farther for $10.00 more. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r541987744-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>541987744</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Not ready for Handicap clients</t>
+  </si>
+  <si>
+    <t>We chose this hotel visiting the area for a couple of days, on Vacation.  to start I am  a RBKA and need a shower chair or bench to bathe.  when we saw the handicap room they had for us, it was a bathtub with a couple of grab bars.  we called and they moved us to a roll in shower, asking for a chair, they gave me a loose and bent shower chair.  trying that out it collapsed.  then the front desk that evening gave me 2 plastic end tables to sit on.  Did not feel safe at all.  the next day they did not get another chair to use, not feeling safe I did not shower any more.  Plus the grab bar next to the toilet was loose on the wall.  the beds were OK.  the front desk guy was not very friendly at all, my wife laughed that she got a smile out of him the second day.  I felt I was an inconvenience to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We chose this hotel visiting the area for a couple of days, on Vacation.  to start I am  a RBKA and need a shower chair or bench to bathe.  when we saw the handicap room they had for us, it was a bathtub with a couple of grab bars.  we called and they moved us to a roll in shower, asking for a chair, they gave me a loose and bent shower chair.  trying that out it collapsed.  then the front desk that evening gave me 2 plastic end tables to sit on.  Did not feel safe at all.  the next day they did not get another chair to use, not feeling safe I did not shower any more.  Plus the grab bar next to the toilet was loose on the wall.  the beds were OK.  the front desk guy was not very friendly at all, my wife laughed that she got a smile out of him the second day.  I felt I was an inconvenience to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r528669303-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>528669303</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly Adequate $40 a Night Hotel</t>
+  </si>
+  <si>
+    <t>Listen closely, it's a $40 a night hotel. Lower your expectations. If you want the Ritz Carlton then go pay for it.   If you want a place to sleep in a safe neighborhood, on the main strip in a safe little city then this is your place.   It's not a drive up hotel, it has a nice lobby. There is no breakfast but again... $40. It looks like it was built in the last 5 or so years.     ESSENTIALS: My king bed was a pillow top. Very adequate. Only 3 pillows for both but provided more on request. The AC was cold, the shower had decent pressure. Room was clean.    OTHERS: Granite countertops in bathroom was a surprise.    CON: There was an unusual smell in the whole building. Kind of like BO. But you get one guest with some rank BO and bad things can happen. Not sure what the smell was but really, the only real negative I can point out.    There was the little kind of funny things you get at a $40 a night hotel like the bathroom door wouldn't close good because the door was slightly bigger than the doorway.     All in all, if you compare apples to apples.... $40 hotel vs $40 hotel it was as good as a $40 hotel as it gets. In my humble opinion. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Listen closely, it's a $40 a night hotel. Lower your expectations. If you want the Ritz Carlton then go pay for it.   If you want a place to sleep in a safe neighborhood, on the main strip in a safe little city then this is your place.   It's not a drive up hotel, it has a nice lobby. There is no breakfast but again... $40. It looks like it was built in the last 5 or so years.     ESSENTIALS: My king bed was a pillow top. Very adequate. Only 3 pillows for both but provided more on request. The AC was cold, the shower had decent pressure. Room was clean.    OTHERS: Granite countertops in bathroom was a surprise.    CON: There was an unusual smell in the whole building. Kind of like BO. But you get one guest with some rank BO and bad things can happen. Not sure what the smell was but really, the only real negative I can point out.    There was the little kind of funny things you get at a $40 a night hotel like the bathroom door wouldn't close good because the door was slightly bigger than the doorway.     All in all, if you compare apples to apples.... $40 hotel vs $40 hotel it was as good as a $40 hotel as it gets. In my humble opinion. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r472410930-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>472410930</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Many other choices around here are better!</t>
+  </si>
+  <si>
+    <t>Whoever the owner is needs to experience the check-in experience.  Not welcoming, appreciative of the stay, and very slow.  It felt like an inconvenience to check-in.  Rooms OK but the hotel not maintained. You can tell that the former hotel had a snack area, and some of the snack they had are still in the Motel 6. It looks as though they took it as it is and started doing business.  It's a former Days Inn or similar, and the breakfast area is now just a sitting area, and the indoor pool that once was there is not in use.  If you want a cheap place to stay and don't mind a poor check-in experience, you can get by here.  But as for me, the welcome at the desk says a lot about what you're going to get.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Whoever the owner is needs to experience the check-in experience.  Not welcoming, appreciative of the stay, and very slow.  It felt like an inconvenience to check-in.  Rooms OK but the hotel not maintained. You can tell that the former hotel had a snack area, and some of the snack they had are still in the Motel 6. It looks as though they took it as it is and started doing business.  It's a former Days Inn or similar, and the breakfast area is now just a sitting area, and the indoor pool that once was there is not in use.  If you want a cheap place to stay and don't mind a poor check-in experience, you can get by here.  But as for me, the welcome at the desk says a lot about what you're going to get.More</t>
   </si>
 </sst>
 </file>
@@ -640,6 +733,242 @@
         <v>41</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>STR#</t>
   </si>
@@ -144,6 +144,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Auntpony</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t xml:space="preserve">This place is not much to speak of. Came here because is was close to home. Our plumbing is out. Needed a place to stay for the night, to take a bath and have a toilet.  No coffee maker no hair drier. Went down to lobby to get coffee at 6am NO COFFEE. Place was clean. Bed was so so. Should have have stayed at a place a little farther for $10.00 more. </t>
   </si>
   <si>
+    <t>vjames1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r541987744-Motel_6_Joshua_TX-Joshua_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>We chose this hotel visiting the area for a couple of days, on Vacation.  to start I am  a RBKA and need a shower chair or bench to bathe.  when we saw the handicap room they had for us, it was a bathtub with a couple of grab bars.  we called and they moved us to a roll in shower, asking for a chair, they gave me a loose and bent shower chair.  trying that out it collapsed.  then the front desk that evening gave me 2 plastic end tables to sit on.  Did not feel safe at all.  the next day they did not get another chair to use, not feeling safe I did not shower any more.  Plus the grab bar next to the toilet was loose on the wall.  the beds were OK.  the front desk guy was not very friendly at all, my wife laughed that she got a smile out of him the second day.  I felt I was an inconvenience to the hotel.More</t>
   </si>
   <si>
+    <t>sky9696</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r528669303-Motel_6_Joshua_TX-Joshua_Texas.html</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t>Listen closely, it's a $40 a night hotel. Lower your expectations. If you want the Ritz Carlton then go pay for it.   If you want a place to sleep in a safe neighborhood, on the main strip in a safe little city then this is your place.   It's not a drive up hotel, it has a nice lobby. There is no breakfast but again... $40. It looks like it was built in the last 5 or so years.     ESSENTIALS: My king bed was a pillow top. Very adequate. Only 3 pillows for both but provided more on request. The AC was cold, the shower had decent pressure. Room was clean.    OTHERS: Granite countertops in bathroom was a surprise.    CON: There was an unusual smell in the whole building. Kind of like BO. But you get one guest with some rank BO and bad things can happen. Not sure what the smell was but really, the only real negative I can point out.    There was the little kind of funny things you get at a $40 a night hotel like the bathroom door wouldn't close good because the door was slightly bigger than the doorway.     All in all, if you compare apples to apples.... $40 hotel vs $40 hotel it was as good as a $40 hotel as it gets. In my humble opinion. More</t>
+  </si>
+  <si>
+    <t>Yodatravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r472410930-Motel_6_Joshua_TX-Joshua_Texas.html</t>
@@ -737,34 +749,38 @@
       <c r="A2" t="n">
         <v>60128</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169484</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -783,50 +799,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60128</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169485</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -846,50 +866,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60128</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169486</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -903,50 +927,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60128</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>61240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -966,7 +994,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_591.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>STR#</t>
   </si>
@@ -144,21 +144,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Auntpony</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r595045955-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>56053</t>
+  </si>
+  <si>
+    <t>12277425</t>
+  </si>
+  <si>
+    <t>595045955</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Clean and inexpensive</t>
+  </si>
+  <si>
+    <t>Nice clean place that's close to shopping, restaurants and highways. Room was clean and I did not experience any problems. Plenty of parking even for RV's and trucks. It is inexpensive so and easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Joshua, TX, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Nice clean place that's close to shopping, restaurants and highways. Room was clean and I did not experience any problems. Plenty of parking even for RV's and trucks. It is inexpensive so and easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r577240225-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>577240225</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Not so much</t>
+  </si>
+  <si>
+    <t>This is a reasonably priced place to stay.  However,  there is no breakfast as advertised &amp; they are remodeling.   They have long term guest who have pets &amp; the odor is present in the elevator and on the upper floors.  Our room looked like the tile had been replaced by a kindergartener.   The lamp shades where crushed, tore, and soiled.   There is questionable activities in the parking lot to the point we won't stay again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r577181679-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>577181679</t>
+  </si>
+  <si>
+    <t>Worse Stay Possible...</t>
+  </si>
+  <si>
+    <t>The outside looks really nice but inside no way.  The staff member who checked us in was very rude and disrespectful however the staff member at check out was polite.  The room was a nice size but stunk really bad, the towels had brown marks on them that we wouldn't even use them, the shower looked horrible, the bed was lumpy and old, the furniture was "worked" on.  Just really disappointing because it the hotel is very conveniently located.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r548017404-Motel_6_Joshua_TX-Joshua_Texas.html</t>
   </si>
   <si>
-    <t>56053</t>
-  </si>
-  <si>
-    <t>12277425</t>
-  </si>
-  <si>
     <t>548017404</t>
   </si>
   <si>
@@ -171,9 +231,6 @@
     <t xml:space="preserve">This place is not much to speak of. Came here because is was close to home. Our plumbing is out. Needed a place to stay for the night, to take a bath and have a toilet.  No coffee maker no hair drier. Went down to lobby to get coffee at 6am NO COFFEE. Place was clean. Bed was so so. Should have have stayed at a place a little farther for $10.00 more. </t>
   </si>
   <si>
-    <t>vjames1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r541987744-Motel_6_Joshua_TX-Joshua_Texas.html</t>
   </si>
   <si>
@@ -192,15 +249,9 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We chose this hotel visiting the area for a couple of days, on Vacation.  to start I am  a RBKA and need a shower chair or bench to bathe.  when we saw the handicap room they had for us, it was a bathtub with a couple of grab bars.  we called and they moved us to a roll in shower, asking for a chair, they gave me a loose and bent shower chair.  trying that out it collapsed.  then the front desk that evening gave me 2 plastic end tables to sit on.  Did not feel safe at all.  the next day they did not get another chair to use, not feeling safe I did not shower any more.  Plus the grab bar next to the toilet was loose on the wall.  the beds were OK.  the front desk guy was not very friendly at all, my wife laughed that she got a smile out of him the second day.  I felt I was an inconvenience to the hotel.More</t>
   </si>
   <si>
-    <t>sky9696</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r528669303-Motel_6_Joshua_TX-Joshua_Texas.html</t>
   </si>
   <si>
@@ -225,7 +276,65 @@
     <t>Listen closely, it's a $40 a night hotel. Lower your expectations. If you want the Ritz Carlton then go pay for it.   If you want a place to sleep in a safe neighborhood, on the main strip in a safe little city then this is your place.   It's not a drive up hotel, it has a nice lobby. There is no breakfast but again... $40. It looks like it was built in the last 5 or so years.     ESSENTIALS: My king bed was a pillow top. Very adequate. Only 3 pillows for both but provided more on request. The AC was cold, the shower had decent pressure. Room was clean.    OTHERS: Granite countertops in bathroom was a surprise.    CON: There was an unusual smell in the whole building. Kind of like BO. But you get one guest with some rank BO and bad things can happen. Not sure what the smell was but really, the only real negative I can point out.    There was the little kind of funny things you get at a $40 a night hotel like the bathroom door wouldn't close good because the door was slightly bigger than the doorway.     All in all, if you compare apples to apples.... $40 hotel vs $40 hotel it was as good as a $40 hotel as it gets. In my humble opinion. More</t>
   </si>
   <si>
-    <t>Yodatravel</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r515319886-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>515319886</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Really not worth staying in except for emergency</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I was in the area for business and needed a place to work out of.
+It is a family run hotel and the family appears to live here as there were various persons sitting in the main lobby as if it was a living room and there was a lot of stair traffic with people coming in with obvious  household items.
+The area where you would find a breakfast area in any other hotel only had a few tables and chairs where family members would sit and clean produce, so it appeared. I found a tiny coffee maker that never had coffee made so I was happy there was a doughnut shop down the street.
+The hallways are very cheaply remodeled and covered with a crazy rug that gave me headaches. When standing in front of the elevator on the second floor, beware several missing tiles hidden under the carpet. I almost tripped everytime entering/exiting the elevator from the uneven surface.
+The room had stained ceilings and stained bedcovers. The bathroom had newer remodel as well but still looked bad.
+TV cable selection was poor in channel choices or guide. 
+The guest laundry was removed and not explained upon checkin that it was closed.
+No chance to use my membership as it was explained to me that this location was recently purchased and not enrolled in any points programmes.
+Overall, this is what I would...I chose this hotel as I was in the area for business and needed a place to work out of.It is a family run hotel and the family appears to live here as there were various persons sitting in the main lobby as if it was a living room and there was a lot of stair traffic with people coming in with obvious  household items.The area where you would find a breakfast area in any other hotel only had a few tables and chairs where family members would sit and clean produce, so it appeared. I found a tiny coffee maker that never had coffee made so I was happy there was a doughnut shop down the street.The hallways are very cheaply remodeled and covered with a crazy rug that gave me headaches. When standing in front of the elevator on the second floor, beware several missing tiles hidden under the carpet. I almost tripped everytime entering/exiting the elevator from the uneven surface.The room had stained ceilings and stained bedcovers. The bathroom had newer remodel as well but still looked bad.TV cable selection was poor in channel choices or guide. The guest laundry was removed and not explained upon checkin that it was closed.No chance to use my membership as it was explained to me that this location was recently purchased and not enrolled in any points programmes.Overall, this is what I would call a low budget hotel. I moved to Cleburne and did not regret the extra 7 miles added to my business stops!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I chose this hotel as I was in the area for business and needed a place to work out of.
+It is a family run hotel and the family appears to live here as there were various persons sitting in the main lobby as if it was a living room and there was a lot of stair traffic with people coming in with obvious  household items.
+The area where you would find a breakfast area in any other hotel only had a few tables and chairs where family members would sit and clean produce, so it appeared. I found a tiny coffee maker that never had coffee made so I was happy there was a doughnut shop down the street.
+The hallways are very cheaply remodeled and covered with a crazy rug that gave me headaches. When standing in front of the elevator on the second floor, beware several missing tiles hidden under the carpet. I almost tripped everytime entering/exiting the elevator from the uneven surface.
+The room had stained ceilings and stained bedcovers. The bathroom had newer remodel as well but still looked bad.
+TV cable selection was poor in channel choices or guide. 
+The guest laundry was removed and not explained upon checkin that it was closed.
+No chance to use my membership as it was explained to me that this location was recently purchased and not enrolled in any points programmes.
+Overall, this is what I would...I chose this hotel as I was in the area for business and needed a place to work out of.It is a family run hotel and the family appears to live here as there were various persons sitting in the main lobby as if it was a living room and there was a lot of stair traffic with people coming in with obvious  household items.The area where you would find a breakfast area in any other hotel only had a few tables and chairs where family members would sit and clean produce, so it appeared. I found a tiny coffee maker that never had coffee made so I was happy there was a doughnut shop down the street.The hallways are very cheaply remodeled and covered with a crazy rug that gave me headaches. When standing in front of the elevator on the second floor, beware several missing tiles hidden under the carpet. I almost tripped everytime entering/exiting the elevator from the uneven surface.The room had stained ceilings and stained bedcovers. The bathroom had newer remodel as well but still looked bad.TV cable selection was poor in channel choices or guide. The guest laundry was removed and not explained upon checkin that it was closed.No chance to use my membership as it was explained to me that this location was recently purchased and not enrolled in any points programmes.Overall, this is what I would call a low budget hotel. I moved to Cleburne and did not regret the extra 7 miles added to my business stops!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r483846244-Motel_6_Joshua_TX-Joshua_Texas.html</t>
+  </si>
+  <si>
+    <t>483846244</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Decent nights stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it a 5 star hotel? Of course not. But it's very affordable with surprisingly nice, clean rooms and friendly staff. Definitely worth the money. The rate for double occupancy was a whopping $51 which is dirt cheap nowadays. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56053-d12277425-r472410930-Motel_6_Joshua_TX-Joshua_Texas.html</t>
@@ -749,44 +858,44 @@
       <c r="A2" t="n">
         <v>60128</v>
       </c>
-      <c r="B2" t="n">
-        <v>169484</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -796,70 +905,64 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60128</v>
       </c>
-      <c r="B3" t="n">
-        <v>169485</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -873,32 +976,28 @@
       <c r="A4" t="n">
         <v>60128</v>
       </c>
-      <c r="B4" t="n">
-        <v>169486</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
         <v>64</v>
@@ -907,94 +1006,381 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60128</v>
       </c>
-      <c r="B5" t="n">
-        <v>61240</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
       <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60128</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
